--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36482463515352</v>
+        <v>1.987569333333333</v>
       </c>
       <c r="H2">
-        <v>1.36482463515352</v>
+        <v>5.962707999999999</v>
       </c>
       <c r="I2">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="J2">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N2">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O2">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P2">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q2">
-        <v>28.40629988162131</v>
+        <v>53.32811038252489</v>
       </c>
       <c r="R2">
-        <v>28.40629988162131</v>
+        <v>479.952993442724</v>
       </c>
       <c r="S2">
-        <v>0.0478090960551644</v>
+        <v>0.0734609651375379</v>
       </c>
       <c r="T2">
-        <v>0.0478090960551644</v>
+        <v>0.07346096513753791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36482463515352</v>
+        <v>1.987569333333333</v>
       </c>
       <c r="H3">
-        <v>1.36482463515352</v>
+        <v>5.962707999999999</v>
       </c>
       <c r="I3">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="J3">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N3">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P3">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q3">
-        <v>13.86028018755837</v>
+        <v>20.31234575278889</v>
       </c>
       <c r="R3">
-        <v>13.86028018755837</v>
+        <v>182.8111117751</v>
       </c>
       <c r="S3">
-        <v>0.0233274826218109</v>
+        <v>0.02798082498149435</v>
       </c>
       <c r="T3">
-        <v>0.0233274826218109</v>
+        <v>0.02798082498149435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.36482463515352</v>
+        <v>1.987569333333333</v>
       </c>
       <c r="H4">
-        <v>1.36482463515352</v>
+        <v>5.962707999999999</v>
       </c>
       <c r="I4">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="J4">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N4">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P4">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q4">
-        <v>11.1393828462532</v>
+        <v>16.49171078824889</v>
       </c>
       <c r="R4">
-        <v>11.1393828462532</v>
+        <v>148.42539709424</v>
       </c>
       <c r="S4">
-        <v>0.01874808851244773</v>
+        <v>0.02271779334733197</v>
       </c>
       <c r="T4">
-        <v>0.01874808851244773</v>
+        <v>0.02271779334733198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.31996093061368</v>
+        <v>7.481595333333334</v>
       </c>
       <c r="H5">
-        <v>7.31996093061368</v>
+        <v>22.444786</v>
       </c>
       <c r="I5">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="J5">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N5">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O5">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P5">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q5">
-        <v>152.3514449849999</v>
+        <v>200.7373202444509</v>
       </c>
       <c r="R5">
-        <v>152.3514449849999</v>
+        <v>1806.635882200058</v>
       </c>
       <c r="S5">
-        <v>0.2564144185545092</v>
+        <v>0.2765212788997045</v>
       </c>
       <c r="T5">
-        <v>0.2564144185545092</v>
+        <v>0.2765212788997045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.31996093061368</v>
+        <v>7.481595333333334</v>
       </c>
       <c r="H6">
-        <v>7.31996093061368</v>
+        <v>22.444786</v>
       </c>
       <c r="I6">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="J6">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N6">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P6">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q6">
-        <v>74.33680990735775</v>
+        <v>76.45959748143891</v>
       </c>
       <c r="R6">
-        <v>74.33680990735775</v>
+        <v>688.13637733295</v>
       </c>
       <c r="S6">
-        <v>0.1251122356697629</v>
+        <v>0.1053252362539126</v>
       </c>
       <c r="T6">
-        <v>0.1251122356697629</v>
+        <v>0.1053252362539126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.31996093061368</v>
+        <v>7.481595333333334</v>
       </c>
       <c r="H7">
-        <v>7.31996093061368</v>
+        <v>22.444786</v>
       </c>
       <c r="I7">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="J7">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N7">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P7">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q7">
-        <v>59.74382724748354</v>
+        <v>62.07798862800889</v>
       </c>
       <c r="R7">
-        <v>59.74382724748354</v>
+        <v>558.70189765208</v>
       </c>
       <c r="S7">
-        <v>0.1005515814266995</v>
+        <v>0.08551416740063238</v>
       </c>
       <c r="T7">
-        <v>0.1005515814266995</v>
+        <v>0.08551416740063239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.49939075517625</v>
+        <v>6.539018333333334</v>
       </c>
       <c r="H8">
-        <v>6.49939075517625</v>
+        <v>19.617055</v>
       </c>
       <c r="I8">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793862</v>
       </c>
       <c r="J8">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793863</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.8131500193987</v>
+        <v>26.83081766666667</v>
       </c>
       <c r="N8">
-        <v>20.8131500193987</v>
+        <v>80.49245300000001</v>
       </c>
       <c r="O8">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="P8">
-        <v>0.5318937873398525</v>
+        <v>0.5916656861001716</v>
       </c>
       <c r="Q8">
-        <v>135.2727948221763</v>
+        <v>175.4472086206573</v>
       </c>
       <c r="R8">
-        <v>135.2727948221763</v>
+        <v>1579.024877585915</v>
       </c>
       <c r="S8">
-        <v>0.2276702727301789</v>
+        <v>0.2416834420629291</v>
       </c>
       <c r="T8">
-        <v>0.2276702727301789</v>
+        <v>0.2416834420629291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.49939075517625</v>
+        <v>6.539018333333334</v>
       </c>
       <c r="H9">
-        <v>6.49939075517625</v>
+        <v>19.617055</v>
       </c>
       <c r="I9">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793862</v>
       </c>
       <c r="J9">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793863</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.1553561025804</v>
+        <v>10.21969166666667</v>
       </c>
       <c r="N9">
-        <v>10.1553561025804</v>
+        <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="P9">
-        <v>0.2595268286709071</v>
+        <v>0.2253617819930474</v>
       </c>
       <c r="Q9">
-        <v>66.00362756863377</v>
+        <v>66.82675116934723</v>
       </c>
       <c r="R9">
-        <v>66.00362756863377</v>
+        <v>601.440760524125</v>
       </c>
       <c r="S9">
-        <v>0.1110871103793333</v>
+        <v>0.09205572075764043</v>
       </c>
       <c r="T9">
-        <v>0.1110871103793333</v>
+        <v>0.09205572075764044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.49939075517625</v>
+        <v>6.539018333333334</v>
       </c>
       <c r="H10">
-        <v>6.49939075517625</v>
+        <v>19.617055</v>
       </c>
       <c r="I10">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793862</v>
       </c>
       <c r="J10">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793863</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.161768596007359</v>
+        <v>8.297426666666667</v>
       </c>
       <c r="N10">
-        <v>8.161768596007359</v>
+        <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="P10">
-        <v>0.2085793839892403</v>
+        <v>0.1829725319067811</v>
       </c>
       <c r="Q10">
-        <v>53.04652335877807</v>
+        <v>54.25702509282223</v>
       </c>
       <c r="R10">
-        <v>53.04652335877807</v>
+        <v>488.3132258354</v>
       </c>
       <c r="S10">
-        <v>0.08927971405009306</v>
+        <v>0.07474057115881667</v>
       </c>
       <c r="T10">
-        <v>0.08927971405009306</v>
+        <v>0.07474057115881669</v>
       </c>
     </row>
   </sheetData>
